--- a/sheet_engine/static/template_sheets/subjects.xlsx
+++ b/sheet_engine/static/template_sheets/subjects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrd/Documents/repositories/curie/sheet_engine/static/template_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34268F3-2EAB-4D11-A62C-FEBAC3FB0C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D96FA5C-06E3-DA40-A1F0-3E6A1F497BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{93122E05-8E27-475F-8386-395538187616}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19920" xr2:uid="{93122E05-8E27-475F-8386-395538187616}"/>
   </bookViews>
   <sheets>
     <sheet name="subjects" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,9 +66,6 @@
     <t>Elective ICT</t>
   </si>
   <si>
-    <t>KETA SENIOR HIGH TECHNICAL SCHOOL</t>
-  </si>
-  <si>
     <t>SUBJECTDATA SHEET</t>
   </si>
   <si>
@@ -81,6 +76,9 @@
   </si>
   <si>
     <t>IS_ELECTIVE(Y/N)</t>
+  </si>
+  <si>
+    <t>ANLO SENIOR HIGH TECHNICAL SCHOOL</t>
   </si>
 </sst>
 </file>
@@ -137,20 +135,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -174,22 +173,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>113514</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>87946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E86743-33DC-4C19-87FE-66CAD02265DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F159DB-EFEF-A158-24DD-2B53C22875CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -205,15 +204,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5391150" y="47625"/>
-          <a:ext cx="1332714" cy="1438275"/>
+          <a:off x="4851400" y="101600"/>
+          <a:ext cx="1333500" cy="1319846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -518,207 +514,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C6235A-F8D4-4F04-B11C-26425F775EAD}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -728,11 +724,11 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -746,7 +742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -759,8 +755,9 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -773,6 +770,9 @@
       <c r="D15" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
